--- a/UserCredentials_demo.xlsx
+++ b/UserCredentials_demo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>ThoughtworksUser@gmail.com</t>
   </si>
@@ -20,7 +20,13 @@
     <t>CorrectP@ssw0rd</t>
   </si>
   <si>
+    <t>My account</t>
+  </si>
+  <si>
     <t>IncorrectPassword</t>
+  </si>
+  <si>
+    <t>Authentication failed.</t>
   </si>
   <si>
     <t>ThoughtworksUser@.com</t>
@@ -29,10 +35,19 @@
     <t>ThoughtworksUser@gmail.</t>
   </si>
   <si>
-    <t>NewUser@gmail.com</t>
+    <t/>
   </si>
   <si>
     <t>AnytPassword</t>
+  </si>
+  <si>
+    <t>An email address required.</t>
+  </si>
+  <si>
+    <t>ThoughtworksUser@gmail</t>
+  </si>
+  <si>
+    <t>Password is required.</t>
   </si>
 </sst>
 </file>
@@ -77,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -90,37 +105,74 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/UserCredentials_demo.xlsx
+++ b/UserCredentials_demo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>ThoughtworksUser@gmail.com</t>
   </si>
@@ -20,7 +20,7 @@
     <t>CorrectP@ssw0rd</t>
   </si>
   <si>
-    <t>My account</t>
+    <t>MY ACCOUNT</t>
   </si>
   <si>
     <t>IncorrectPassword</t>
@@ -29,10 +29,10 @@
     <t>Authentication failed.</t>
   </si>
   <si>
-    <t>ThoughtworksUser@.com</t>
+    <t>ThoughtworksUser345@gmail.com</t>
   </si>
   <si>
-    <t>ThoughtworksUser@gmail.</t>
+    <t>ThoughtworksUser24@gmail.com</t>
   </si>
   <si>
     <t/>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>An email address required.</t>
-  </si>
-  <si>
-    <t>ThoughtworksUser@gmail</t>
   </si>
   <si>
     <t>Password is required.</t>
@@ -155,13 +152,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
